--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1189,7 +1189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1854,7 +1854,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2503,7 +2503,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>48716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36890</v>
+        <v>36861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62034</v>
+        <v>62670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1042085311636412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07891118163135326</v>
+        <v>0.07884990190759018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1326962261802398</v>
+        <v>0.1340571512247654</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>418773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405455</v>
+        <v>404819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430599</v>
+        <v>430628</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8957914688363589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8673037738197602</v>
+        <v>0.8659428487752345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9210888183686466</v>
+        <v>0.9211500980924098</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>98765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81056</v>
+        <v>82221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117185</v>
+        <v>117544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1578993385198864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1295879162427414</v>
+        <v>0.1314489544738106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.18734800464305</v>
+        <v>0.1879212483974537</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>526729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508309</v>
+        <v>507950</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>544438</v>
+        <v>543273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8421006614801136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8126519953569499</v>
+        <v>0.8120787516025458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8704120837572586</v>
+        <v>0.8685510455261892</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>46711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34163</v>
+        <v>34783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61150</v>
+        <v>60986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06772236986003539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04952970252986141</v>
+        <v>0.05042943546860341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0886563799258939</v>
+        <v>0.08841841226701293</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>643033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628594</v>
+        <v>628758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655581</v>
+        <v>654961</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9322776301399646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.911343620074106</v>
+        <v>0.9115815877329871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9504702974701381</v>
+        <v>0.9495705645313965</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>16986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9931</v>
+        <v>9930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26585</v>
+        <v>26203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03294058929026304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01926009276572137</v>
+        <v>0.0192577718180268</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05155742769115112</v>
+        <v>0.05081577152343655</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>498656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489057</v>
+        <v>489439</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505711</v>
+        <v>505712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.967059410709737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9484425723088498</v>
+        <v>0.9491842284765635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9807399072342786</v>
+        <v>0.9807422281819732</v>
       </c>
     </row>
     <row r="15">
@@ -1063,19 +1063,19 @@
         <v>211178</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08956365109376808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
     </row>
     <row r="20">
@@ -1092,19 +1092,19 @@
         <v>2146677</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2117724</v>
+        <v>2118770</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2174559</v>
+        <v>2172513</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9104363489062319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8981568594780192</v>
+        <v>0.8986004684574319</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9222614351496348</v>
+        <v>0.9213937673563558</v>
       </c>
     </row>
     <row r="21">
@@ -1273,19 +1273,19 @@
         <v>66141</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51558</v>
+        <v>52943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82144</v>
+        <v>84478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1540536920673765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1200862667560346</v>
+        <v>0.1233128831021115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1913262826276164</v>
+        <v>0.1967636330746104</v>
       </c>
     </row>
     <row r="5">
@@ -1302,19 +1302,19 @@
         <v>363198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347195</v>
+        <v>344861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377781</v>
+        <v>376396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8459463079326235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.808673717372383</v>
+        <v>0.8032363669253897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8799137332439653</v>
+        <v>0.8766871168978885</v>
       </c>
     </row>
     <row r="6">
@@ -1364,19 +1364,19 @@
         <v>103025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85910</v>
+        <v>85142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124253</v>
+        <v>124171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1696767781304927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1414898620920698</v>
+        <v>0.1402253614425977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2046384661973311</v>
+        <v>0.2045045266861375</v>
       </c>
     </row>
     <row r="8">
@@ -1393,19 +1393,19 @@
         <v>504157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>482929</v>
+        <v>483011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521272</v>
+        <v>522040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8303232218695074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7953615338026689</v>
+        <v>0.7954954733138626</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8585101379079303</v>
+        <v>0.8597746385574024</v>
       </c>
     </row>
     <row r="9">
@@ -1455,19 +1455,19 @@
         <v>52288</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39618</v>
+        <v>39063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69094</v>
+        <v>67338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07388945248083394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05598446774094727</v>
+        <v>0.05520123898128465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09763873143695392</v>
+        <v>0.09515653909972878</v>
       </c>
     </row>
     <row r="11">
@@ -1484,19 +1484,19 @@
         <v>655366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638560</v>
+        <v>640316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668036</v>
+        <v>668591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9261105475191661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9023612685630461</v>
+        <v>0.9048434609002712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9440155322590527</v>
+        <v>0.9447987610187153</v>
       </c>
     </row>
     <row r="12">
@@ -1546,19 +1546,19 @@
         <v>10582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5188</v>
+        <v>5356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18321</v>
+        <v>18482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01723239321492487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008448982886424979</v>
+        <v>0.008722207936019835</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02983499210022781</v>
+        <v>0.03009726496681833</v>
       </c>
     </row>
     <row r="14">
@@ -1575,19 +1575,19 @@
         <v>603490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>595751</v>
+        <v>595590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608884</v>
+        <v>608716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9827676067850751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9701650078997721</v>
+        <v>0.9699027350331837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.991551017113575</v>
+        <v>0.9912777920639803</v>
       </c>
     </row>
     <row r="15">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4858</v>
+        <v>5637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01638133967690689</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07070932798407761</v>
+        <v>0.08204591262573334</v>
       </c>
     </row>
     <row r="17">
@@ -1666,7 +1666,7 @@
         <v>67577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63844</v>
+        <v>63065</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>68702</v>
@@ -1675,7 +1675,7 @@
         <v>0.9836186603230931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.929290672015922</v>
+        <v>0.9179540873742666</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1728,19 +1728,19 @@
         <v>233162</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09607182632570507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
     </row>
     <row r="20">
@@ -1757,19 +1757,19 @@
         <v>2193788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2160297</v>
+        <v>2159274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2221015</v>
+        <v>2221916</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9039281736742949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8901282240823798</v>
+        <v>0.8897066346857039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9151465257682576</v>
+        <v>0.9155179997069282</v>
       </c>
     </row>
     <row r="21">
@@ -1938,19 +1938,19 @@
         <v>34493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24314</v>
+        <v>23690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47513</v>
+        <v>46604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08715756783991478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06143606990479654</v>
+        <v>0.05986023047332126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1200571250253671</v>
+        <v>0.1177596865325465</v>
       </c>
     </row>
     <row r="5">
@@ -1967,19 +1967,19 @@
         <v>361262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348242</v>
+        <v>349151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>371441</v>
+        <v>372065</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9128424321600852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8799428749746329</v>
+        <v>0.882240313467453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9385639300952034</v>
+        <v>0.9401397695266783</v>
       </c>
     </row>
     <row r="6">
@@ -2029,19 +2029,19 @@
         <v>62879</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49297</v>
+        <v>50207</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77529</v>
+        <v>78067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1115786388220595</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08747676164914624</v>
+        <v>0.08909220189418592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1375742141251426</v>
+        <v>0.1385292497412048</v>
       </c>
     </row>
     <row r="8">
@@ -2058,19 +2058,19 @@
         <v>500665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486015</v>
+        <v>485477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514247</v>
+        <v>513337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8884213611779406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8624257858748573</v>
+        <v>0.8614707502587952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9125232383508537</v>
+        <v>0.910907798105814</v>
       </c>
     </row>
     <row r="9">
@@ -2120,19 +2120,19 @@
         <v>35112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25301</v>
+        <v>25199</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49075</v>
+        <v>48131</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05308877659233917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03825404067304294</v>
+        <v>0.03810053310110376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07420064459567292</v>
+        <v>0.0727725976083792</v>
       </c>
     </row>
     <row r="11">
@@ -2149,19 +2149,19 @@
         <v>626274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612311</v>
+        <v>613255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636085</v>
+        <v>636187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9469112234076609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.925799355404327</v>
+        <v>0.9272274023916206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9617459593269571</v>
+        <v>0.9618994668988962</v>
       </c>
     </row>
     <row r="12">
@@ -2211,19 +2211,19 @@
         <v>16155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9376</v>
+        <v>9186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25433</v>
+        <v>25402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02488916408828058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01444488022821682</v>
+        <v>0.01415251978949802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03918343756292851</v>
+        <v>0.03913630317937184</v>
       </c>
     </row>
     <row r="14">
@@ -2240,19 +2240,19 @@
         <v>632922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623644</v>
+        <v>623675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639701</v>
+        <v>639891</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9751108359117194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9608165624370716</v>
+        <v>0.9608636968206282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9855551197717833</v>
+        <v>0.9858474802105021</v>
       </c>
     </row>
     <row r="15">
@@ -2377,19 +2377,19 @@
         <v>148640</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06372347490961837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
     </row>
     <row r="20">
@@ -2406,19 +2406,19 @@
         <v>2183933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2160078</v>
+        <v>2158424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2206268</v>
+        <v>2204919</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9362765250903816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9260494307148173</v>
+        <v>0.9253401908097371</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9458514985858933</v>
+        <v>0.9452732448064985</v>
       </c>
     </row>
     <row r="21">
@@ -2587,19 +2587,19 @@
         <v>7121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2412</v>
+        <v>2093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19280</v>
+        <v>19035</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01964216354529609</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0066535625707408</v>
+        <v>0.005773193964157057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05318458920074703</v>
+        <v>0.05250834339622299</v>
       </c>
     </row>
     <row r="5">
@@ -2616,19 +2616,19 @@
         <v>355391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>343232</v>
+        <v>343477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>360100</v>
+        <v>360419</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9803578364547038</v>
+        <v>0.9803578364547039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9468154107992527</v>
+        <v>0.9474916566037764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933464374292592</v>
+        <v>0.9942268060358429</v>
       </c>
     </row>
     <row r="6">
@@ -2678,19 +2678,19 @@
         <v>31999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21486</v>
+        <v>22156</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45670</v>
+        <v>46475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06424310130789389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0431361465209914</v>
+        <v>0.04448167368146701</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09169052011836429</v>
+        <v>0.09330661251484262</v>
       </c>
     </row>
     <row r="8">
@@ -2707,19 +2707,19 @@
         <v>466087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452416</v>
+        <v>451611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476600</v>
+        <v>475930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9357568986921061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9083094798816357</v>
+        <v>0.9066933874851573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9568638534790086</v>
+        <v>0.9555183263185331</v>
       </c>
     </row>
     <row r="9">
@@ -2769,19 +2769,19 @@
         <v>14673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9203</v>
+        <v>8789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23040</v>
+        <v>21758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02361295679419435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0148109176368915</v>
+        <v>0.01414501878787653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03707882837106487</v>
+        <v>0.03501576028877407</v>
       </c>
     </row>
     <row r="11">
@@ -2798,19 +2798,19 @@
         <v>606705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598338</v>
+        <v>599620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612175</v>
+        <v>612589</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9763870432058056</v>
+        <v>0.9763870432058058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9629211716289349</v>
+        <v>0.9649842397112259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9851890823631082</v>
+        <v>0.9858549812121232</v>
       </c>
     </row>
     <row r="12">
@@ -2860,19 +2860,19 @@
         <v>11890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6781</v>
+        <v>7484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18112</v>
+        <v>19071</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01616512477812708</v>
+        <v>0.01616512477812709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009218734877909952</v>
+        <v>0.01017491660289303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02462385644370184</v>
+        <v>0.02592815910587648</v>
       </c>
     </row>
     <row r="14">
@@ -2889,19 +2889,19 @@
         <v>723644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>717422</v>
+        <v>716463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>728753</v>
+        <v>728050</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.983834875221873</v>
+        <v>0.9838348752218729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9753761435562978</v>
+        <v>0.9740718408941235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907812651220896</v>
+        <v>0.9898250833971071</v>
       </c>
     </row>
     <row r="15">
@@ -3026,19 +3026,19 @@
         <v>65682</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02879613205893626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="20">
@@ -3055,19 +3055,19 @@
         <v>2215239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2196076</v>
+        <v>2198010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2228875</v>
+        <v>2229516</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9712038679410638</v>
+        <v>0.9712038679410636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9628022765000739</v>
+        <v>0.963650322600875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9771820697042113</v>
+        <v>0.977463138673059</v>
       </c>
     </row>
     <row r="21">
